--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf18-Tnfrsf18.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tnfsf18-Tnfrsf18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1977553333333333</v>
+        <v>0.2097973333333333</v>
       </c>
       <c r="H2">
-        <v>0.593266</v>
+        <v>0.629392</v>
       </c>
       <c r="I2">
-        <v>0.1658261216405568</v>
+        <v>0.3270698708904635</v>
       </c>
       <c r="J2">
-        <v>0.1658261216405568</v>
+        <v>0.3470037876490663</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8688675</v>
+        <v>0.8697835</v>
       </c>
       <c r="N2">
-        <v>1.737735</v>
+        <v>1.739567</v>
       </c>
       <c r="O2">
-        <v>0.2876230881030516</v>
+        <v>0.2390107164824254</v>
       </c>
       <c r="P2">
-        <v>0.2287602607316837</v>
+        <v>0.1890276680426018</v>
       </c>
       <c r="Q2">
-        <v>0.171823182085</v>
+        <v>0.1824782588773333</v>
       </c>
       <c r="R2">
-        <v>1.03093909251</v>
+        <v>1.094869553264</v>
       </c>
       <c r="S2">
-        <v>0.04769542119440923</v>
+        <v>0.07817320418134403</v>
       </c>
       <c r="T2">
-        <v>0.03793442682261768</v>
+        <v>0.0655933167812532</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1977553333333333</v>
+        <v>0.2097973333333333</v>
       </c>
       <c r="H3">
-        <v>0.593266</v>
+        <v>0.629392</v>
       </c>
       <c r="I3">
-        <v>0.1658261216405568</v>
+        <v>0.3270698708904635</v>
       </c>
       <c r="J3">
-        <v>0.1658261216405568</v>
+        <v>0.3470037876490663</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.574511</v>
       </c>
       <c r="O3">
-        <v>0.1737379274639013</v>
+        <v>0.1442217142616372</v>
       </c>
       <c r="P3">
-        <v>0.207273000132301</v>
+        <v>0.1710920836262271</v>
       </c>
       <c r="Q3">
-        <v>0.1037893158806667</v>
+        <v>0.1101094030346667</v>
       </c>
       <c r="R3">
-        <v>0.9341038429259999</v>
+        <v>0.9909846273119999</v>
       </c>
       <c r="S3">
-        <v>0.02881028669320714</v>
+        <v>0.04717057746315498</v>
       </c>
       <c r="T3">
-        <v>0.03437127773274209</v>
+        <v>0.05936960105507161</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1977553333333333</v>
+        <v>0.2097973333333333</v>
       </c>
       <c r="H4">
-        <v>0.593266</v>
+        <v>0.629392</v>
       </c>
       <c r="I4">
-        <v>0.1658261216405568</v>
+        <v>0.3270698708904635</v>
       </c>
       <c r="J4">
-        <v>0.1658261216405568</v>
+        <v>0.3470037876490663</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2588029999999999</v>
+        <v>0.3096166666666667</v>
       </c>
       <c r="N4">
-        <v>0.7764089999999999</v>
+        <v>0.92885</v>
       </c>
       <c r="O4">
-        <v>0.08567211694571848</v>
+        <v>0.0850805991777267</v>
       </c>
       <c r="P4">
-        <v>0.1022086366876571</v>
+        <v>0.1009322144311606</v>
       </c>
       <c r="Q4">
-        <v>0.05117967353266665</v>
+        <v>0.06495675102222222</v>
       </c>
       <c r="R4">
-        <v>0.4606170617939999</v>
+        <v>0.5846107591999999</v>
       </c>
       <c r="S4">
-        <v>0.01420667488584472</v>
+        <v>0.02782730058834234</v>
       </c>
       <c r="T4">
-        <v>0.0169488618200829</v>
+        <v>0.03502386070342046</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1977553333333333</v>
+        <v>0.2097973333333333</v>
       </c>
       <c r="H5">
-        <v>0.593266</v>
+        <v>0.629392</v>
       </c>
       <c r="I5">
-        <v>0.1658261216405568</v>
+        <v>0.3270698708904635</v>
       </c>
       <c r="J5">
-        <v>0.1658261216405568</v>
+        <v>0.3470037876490663</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5973809999999999</v>
+        <v>0.8448005</v>
       </c>
       <c r="N5">
-        <v>1.194762</v>
+        <v>1.689601</v>
       </c>
       <c r="O5">
-        <v>0.1977523247147454</v>
+        <v>0.232145554370382</v>
       </c>
       <c r="P5">
-        <v>0.1572817872876519</v>
+        <v>0.1835981810142685</v>
       </c>
       <c r="Q5">
-        <v>0.118135278782</v>
+        <v>0.1772368920986666</v>
       </c>
       <c r="R5">
-        <v>0.7088116726919999</v>
+        <v>1.063421352592</v>
       </c>
       <c r="S5">
-        <v>0.03279250105285026</v>
+        <v>0.07592781649571591</v>
       </c>
       <c r="T5">
-        <v>0.02608142879060635</v>
+        <v>0.06370926421743008</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1977553333333333</v>
+        <v>0.2097973333333333</v>
       </c>
       <c r="H6">
-        <v>0.593266</v>
+        <v>0.629392</v>
       </c>
       <c r="I6">
-        <v>0.1658261216405568</v>
+        <v>0.3270698708904635</v>
       </c>
       <c r="J6">
-        <v>0.1658261216405568</v>
+        <v>0.3470037876490663</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.196714</v>
+        <v>0.7966953333333334</v>
       </c>
       <c r="N6">
-        <v>0.5901419999999999</v>
+        <v>2.390086</v>
       </c>
       <c r="O6">
-        <v>0.06511866096165836</v>
+        <v>0.2189265747605062</v>
       </c>
       <c r="P6">
-        <v>0.07768793158261603</v>
+        <v>0.2597154251611292</v>
       </c>
       <c r="Q6">
-        <v>0.03890124264133332</v>
+        <v>0.1671445564124444</v>
       </c>
       <c r="R6">
-        <v>0.350111183772</v>
+        <v>1.504301007712</v>
       </c>
       <c r="S6">
-        <v>0.01079837499369814</v>
+        <v>0.07160428654141016</v>
       </c>
       <c r="T6">
-        <v>0.01288268839262214</v>
+        <v>0.09012223624179946</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1977553333333333</v>
+        <v>0.2097973333333333</v>
       </c>
       <c r="H7">
-        <v>0.593266</v>
+        <v>0.629392</v>
       </c>
       <c r="I7">
-        <v>0.1658261216405568</v>
+        <v>0.3270698708904635</v>
       </c>
       <c r="J7">
-        <v>0.1658261216405568</v>
+        <v>0.3470037876490663</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.574252</v>
+        <v>0.2933653333333333</v>
       </c>
       <c r="N7">
-        <v>1.722756</v>
+        <v>0.880096</v>
       </c>
       <c r="O7">
-        <v>0.1900958818109247</v>
+        <v>0.08061484094732256</v>
       </c>
       <c r="P7">
-        <v>0.2267883835780901</v>
+        <v>0.09563442772461289</v>
       </c>
       <c r="Q7">
-        <v>0.1135613956773333</v>
+        <v>0.06154726462577777</v>
       </c>
       <c r="R7">
-        <v>1.022052561096</v>
+        <v>0.553925381632</v>
       </c>
       <c r="S7">
-        <v>0.0315228628205473</v>
+        <v>0.02636668562049604</v>
       </c>
       <c r="T7">
-        <v>0.03760743808188564</v>
+        <v>0.03318550865009155</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.9947909999999999</v>
+        <v>0.110545</v>
       </c>
       <c r="H8">
-        <v>2.984373</v>
+        <v>0.22109</v>
       </c>
       <c r="I8">
-        <v>0.8341738783594431</v>
+        <v>0.1723374568357381</v>
       </c>
       <c r="J8">
-        <v>0.8341738783594432</v>
+        <v>0.1218939347995082</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8688675</v>
+        <v>0.8697835</v>
       </c>
       <c r="N8">
-        <v>1.737735</v>
+        <v>1.739567</v>
       </c>
       <c r="O8">
-        <v>0.2876230881030516</v>
+        <v>0.2390107164824254</v>
       </c>
       <c r="P8">
-        <v>0.2287602607316837</v>
+        <v>0.1890276680426018</v>
       </c>
       <c r="Q8">
-        <v>0.8643415691924999</v>
+        <v>0.09615021700750001</v>
       </c>
       <c r="R8">
-        <v>5.186049415155</v>
+        <v>0.38460086803</v>
       </c>
       <c r="S8">
-        <v>0.2399276669086424</v>
+        <v>0.04119049903506881</v>
       </c>
       <c r="T8">
-        <v>0.190825833909066</v>
+        <v>0.02304132624368799</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.9947909999999999</v>
+        <v>0.110545</v>
       </c>
       <c r="H9">
-        <v>2.984373</v>
+        <v>0.22109</v>
       </c>
       <c r="I9">
-        <v>0.8341738783594431</v>
+        <v>0.1723374568357381</v>
       </c>
       <c r="J9">
-        <v>0.8341738783594432</v>
+        <v>0.1218939347995082</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>1.574511</v>
       </c>
       <c r="O9">
-        <v>0.1737379274639013</v>
+        <v>0.1442217142616372</v>
       </c>
       <c r="P9">
-        <v>0.207273000132301</v>
+        <v>0.1710920836262271</v>
       </c>
       <c r="Q9">
-        <v>0.5221031240669999</v>
+        <v>0.058018106165</v>
       </c>
       <c r="R9">
-        <v>4.698928116603</v>
+        <v>0.34810863699</v>
       </c>
       <c r="S9">
-        <v>0.1449276407706942</v>
+        <v>0.02485480345634105</v>
       </c>
       <c r="T9">
-        <v>0.1729017223995589</v>
+        <v>0.02085508728624734</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.9947909999999999</v>
+        <v>0.110545</v>
       </c>
       <c r="H10">
-        <v>2.984373</v>
+        <v>0.22109</v>
       </c>
       <c r="I10">
-        <v>0.8341738783594431</v>
+        <v>0.1723374568357381</v>
       </c>
       <c r="J10">
-        <v>0.8341738783594432</v>
+        <v>0.1218939347995082</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1057,28 +1057,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2588029999999999</v>
+        <v>0.3096166666666667</v>
       </c>
       <c r="N10">
-        <v>0.7764089999999999</v>
+        <v>0.92885</v>
       </c>
       <c r="O10">
-        <v>0.08567211694571848</v>
+        <v>0.0850805991777267</v>
       </c>
       <c r="P10">
-        <v>0.1022086366876571</v>
+        <v>0.1009322144311606</v>
       </c>
       <c r="Q10">
-        <v>0.2574548951729999</v>
+        <v>0.03422657441666667</v>
       </c>
       <c r="R10">
-        <v>2.317094056557</v>
+        <v>0.2053594465</v>
       </c>
       <c r="S10">
-        <v>0.07146544205987375</v>
+        <v>0.01466257408835021</v>
       </c>
       <c r="T10">
-        <v>0.08525977486757419</v>
+        <v>0.01230302476504187</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.9947909999999999</v>
+        <v>0.110545</v>
       </c>
       <c r="H11">
-        <v>2.984373</v>
+        <v>0.22109</v>
       </c>
       <c r="I11">
-        <v>0.8341738783594431</v>
+        <v>0.1723374568357381</v>
       </c>
       <c r="J11">
-        <v>0.8341738783594432</v>
+        <v>0.1218939347995082</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.5973809999999999</v>
+        <v>0.8448005</v>
       </c>
       <c r="N11">
-        <v>1.194762</v>
+        <v>1.689601</v>
       </c>
       <c r="O11">
-        <v>0.1977523247147454</v>
+        <v>0.232145554370382</v>
       </c>
       <c r="P11">
-        <v>0.1572817872876519</v>
+        <v>0.1835981810142685</v>
       </c>
       <c r="Q11">
-        <v>0.5942692423709999</v>
+        <v>0.0933884712725</v>
       </c>
       <c r="R11">
-        <v>3.565615454225999</v>
+        <v>0.37355388509</v>
       </c>
       <c r="S11">
-        <v>0.1649598236618952</v>
+        <v>0.0400073744559142</v>
       </c>
       <c r="T11">
-        <v>0.1312003584970456</v>
+        <v>0.02237950470586156</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G12">
-        <v>0.9947909999999999</v>
+        <v>0.110545</v>
       </c>
       <c r="H12">
-        <v>2.984373</v>
+        <v>0.22109</v>
       </c>
       <c r="I12">
-        <v>0.8341738783594431</v>
+        <v>0.1723374568357381</v>
       </c>
       <c r="J12">
-        <v>0.8341738783594432</v>
+        <v>0.1218939347995082</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.196714</v>
+        <v>0.7966953333333334</v>
       </c>
       <c r="N12">
-        <v>0.5901419999999999</v>
+        <v>2.390086</v>
       </c>
       <c r="O12">
-        <v>0.06511866096165836</v>
+        <v>0.2189265747605062</v>
       </c>
       <c r="P12">
-        <v>0.07768793158261603</v>
+        <v>0.2597154251611292</v>
       </c>
       <c r="Q12">
-        <v>0.1956893167739999</v>
+        <v>0.08807068562333335</v>
       </c>
       <c r="R12">
-        <v>1.761203850966</v>
+        <v>0.5284241137400001</v>
       </c>
       <c r="S12">
-        <v>0.05432028596796021</v>
+        <v>0.03772924912798472</v>
       </c>
       <c r="T12">
-        <v>0.06480524318999389</v>
+        <v>0.03165773510101724</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,805 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.110545</v>
+      </c>
+      <c r="H13">
+        <v>0.22109</v>
+      </c>
+      <c r="I13">
+        <v>0.1723374568357381</v>
+      </c>
+      <c r="J13">
+        <v>0.1218939347995082</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.2933653333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.880096</v>
+      </c>
+      <c r="O13">
+        <v>0.08061484094732256</v>
+      </c>
+      <c r="P13">
+        <v>0.09563442772461289</v>
+      </c>
+      <c r="Q13">
+        <v>0.03243007077333333</v>
+      </c>
+      <c r="R13">
+        <v>0.19458042464</v>
+      </c>
+      <c r="S13">
+        <v>0.01389295667207909</v>
+      </c>
+      <c r="T13">
+        <v>0.01165725669765225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.2394876666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.718463</v>
+      </c>
+      <c r="I14">
+        <v>0.3733565101710461</v>
+      </c>
+      <c r="J14">
+        <v>0.3961114572249269</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.8697835</v>
+      </c>
+      <c r="N14">
+        <v>1.739567</v>
+      </c>
+      <c r="O14">
+        <v>0.2390107164824254</v>
+      </c>
+      <c r="P14">
+        <v>0.1890276680426018</v>
+      </c>
+      <c r="Q14">
+        <v>0.2083024209201667</v>
+      </c>
+      <c r="R14">
+        <v>1.249814525521</v>
+      </c>
+      <c r="S14">
+        <v>0.08923620699935966</v>
+      </c>
+      <c r="T14">
+        <v>0.07487602504418474</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2394876666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.718463</v>
+      </c>
+      <c r="I15">
+        <v>0.3733565101710461</v>
+      </c>
+      <c r="J15">
+        <v>0.3961114572249269</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.524837</v>
+      </c>
+      <c r="N15">
+        <v>1.574511</v>
+      </c>
+      <c r="O15">
+        <v>0.1442217142616372</v>
+      </c>
+      <c r="P15">
+        <v>0.1710920836262271</v>
+      </c>
+      <c r="Q15">
+        <v>0.1256919885103333</v>
+      </c>
+      <c r="R15">
+        <v>1.131227896593</v>
+      </c>
+      <c r="S15">
+        <v>0.05384611592761063</v>
+      </c>
+      <c r="T15">
+        <v>0.06777153456483387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2394876666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.718463</v>
+      </c>
+      <c r="I16">
+        <v>0.3733565101710461</v>
+      </c>
+      <c r="J16">
+        <v>0.3961114572249269</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.3096166666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.92885</v>
+      </c>
+      <c r="O16">
+        <v>0.0850805991777267</v>
+      </c>
+      <c r="P16">
+        <v>0.1009322144311606</v>
+      </c>
+      <c r="Q16">
+        <v>0.07414937306111111</v>
+      </c>
+      <c r="R16">
+        <v>0.6673443575499999</v>
+      </c>
+      <c r="S16">
+        <v>0.03176539559225761</v>
+      </c>
+      <c r="T16">
+        <v>0.0399804065392658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.2394876666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.718463</v>
+      </c>
+      <c r="I17">
+        <v>0.3733565101710461</v>
+      </c>
+      <c r="J17">
+        <v>0.3961114572249269</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.8448005</v>
+      </c>
+      <c r="N17">
+        <v>1.689601</v>
+      </c>
+      <c r="O17">
+        <v>0.232145554370382</v>
+      </c>
+      <c r="P17">
+        <v>0.1835981810142685</v>
+      </c>
+      <c r="Q17">
+        <v>0.2023193005438333</v>
+      </c>
+      <c r="R17">
+        <v>1.213915803263</v>
+      </c>
+      <c r="S17">
+        <v>0.08667305403144866</v>
+      </c>
+      <c r="T17">
+        <v>0.07272534302540781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.2394876666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.718463</v>
+      </c>
+      <c r="I18">
+        <v>0.3733565101710461</v>
+      </c>
+      <c r="J18">
+        <v>0.3961114572249269</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.7966953333333334</v>
+      </c>
+      <c r="N18">
+        <v>2.390086</v>
+      </c>
+      <c r="O18">
+        <v>0.2189265747605062</v>
+      </c>
+      <c r="P18">
+        <v>0.2597154251611292</v>
+      </c>
+      <c r="Q18">
+        <v>0.1907987064242222</v>
+      </c>
+      <c r="R18">
+        <v>1.717188357818</v>
+      </c>
+      <c r="S18">
+        <v>0.08173766193628321</v>
+      </c>
+      <c r="T18">
+        <v>0.1028762555243663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.2394876666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.718463</v>
+      </c>
+      <c r="I19">
+        <v>0.3733565101710461</v>
+      </c>
+      <c r="J19">
+        <v>0.3961114572249269</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.2933653333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.880096</v>
+      </c>
+      <c r="O19">
+        <v>0.08061484094732256</v>
+      </c>
+      <c r="P19">
+        <v>0.09563442772461289</v>
+      </c>
+      <c r="Q19">
+        <v>0.07025737916088888</v>
+      </c>
+      <c r="R19">
+        <v>0.632316412448</v>
+      </c>
+      <c r="S19">
+        <v>0.0300980756840863</v>
+      </c>
+      <c r="T19">
+        <v>0.03788189252686835</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.08161500000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.244845</v>
+      </c>
+      <c r="I20">
+        <v>0.1272361621027524</v>
+      </c>
+      <c r="J20">
+        <v>0.1349908203264987</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.8697835</v>
+      </c>
+      <c r="N20">
+        <v>1.739567</v>
+      </c>
+      <c r="O20">
+        <v>0.2390107164824254</v>
+      </c>
+      <c r="P20">
+        <v>0.1890276680426018</v>
+      </c>
+      <c r="Q20">
+        <v>0.0709873803525</v>
+      </c>
+      <c r="R20">
+        <v>0.4259242821150001</v>
+      </c>
+      <c r="S20">
+        <v>0.03041080626665287</v>
+      </c>
+      <c r="T20">
+        <v>0.0255169999734759</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.08161500000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.244845</v>
+      </c>
+      <c r="I21">
+        <v>0.1272361621027524</v>
+      </c>
+      <c r="J21">
+        <v>0.1349908203264987</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.524837</v>
+      </c>
+      <c r="N21">
+        <v>1.574511</v>
+      </c>
+      <c r="O21">
+        <v>0.1442217142616372</v>
+      </c>
+      <c r="P21">
+        <v>0.1710920836262271</v>
+      </c>
+      <c r="Q21">
+        <v>0.042834571755</v>
+      </c>
+      <c r="R21">
+        <v>0.385511145795</v>
+      </c>
+      <c r="S21">
+        <v>0.0183502174145305</v>
+      </c>
+      <c r="T21">
+        <v>0.02309586072007431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.08161500000000001</v>
+      </c>
+      <c r="H22">
+        <v>0.244845</v>
+      </c>
+      <c r="I22">
+        <v>0.1272361621027524</v>
+      </c>
+      <c r="J22">
+        <v>0.1349908203264987</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.3096166666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.92885</v>
+      </c>
+      <c r="O22">
+        <v>0.0850805991777267</v>
+      </c>
+      <c r="P22">
+        <v>0.1009322144311606</v>
+      </c>
+      <c r="Q22">
+        <v>0.02526936425</v>
+      </c>
+      <c r="R22">
+        <v>0.22742427825</v>
+      </c>
+      <c r="S22">
+        <v>0.01082532890877654</v>
+      </c>
+      <c r="T22">
+        <v>0.01362492242343243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.08161500000000001</v>
+      </c>
+      <c r="H23">
+        <v>0.244845</v>
+      </c>
+      <c r="I23">
+        <v>0.1272361621027524</v>
+      </c>
+      <c r="J23">
+        <v>0.1349908203264987</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
         <v>1</v>
       </c>
-      <c r="G13">
-        <v>0.9947909999999999</v>
-      </c>
-      <c r="H13">
-        <v>2.984373</v>
-      </c>
-      <c r="I13">
-        <v>0.8341738783594431</v>
-      </c>
-      <c r="J13">
-        <v>0.8341738783594432</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.574252</v>
-      </c>
-      <c r="N13">
-        <v>1.722756</v>
-      </c>
-      <c r="O13">
-        <v>0.1900958818109247</v>
-      </c>
-      <c r="P13">
-        <v>0.2267883835780901</v>
-      </c>
-      <c r="Q13">
-        <v>0.5712607213319999</v>
-      </c>
-      <c r="R13">
-        <v>5.141346491987999</v>
-      </c>
-      <c r="S13">
-        <v>0.1585730189903774</v>
-      </c>
-      <c r="T13">
-        <v>0.1891809454962045</v>
+      <c r="M23">
+        <v>0.8448005</v>
+      </c>
+      <c r="N23">
+        <v>1.689601</v>
+      </c>
+      <c r="O23">
+        <v>0.232145554370382</v>
+      </c>
+      <c r="P23">
+        <v>0.1835981810142685</v>
+      </c>
+      <c r="Q23">
+        <v>0.06894839280750001</v>
+      </c>
+      <c r="R23">
+        <v>0.413690356845</v>
+      </c>
+      <c r="S23">
+        <v>0.02953730938730325</v>
+      </c>
+      <c r="T23">
+        <v>0.0247840690655691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.08161500000000001</v>
+      </c>
+      <c r="H24">
+        <v>0.244845</v>
+      </c>
+      <c r="I24">
+        <v>0.1272361621027524</v>
+      </c>
+      <c r="J24">
+        <v>0.1349908203264987</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.7966953333333334</v>
+      </c>
+      <c r="N24">
+        <v>2.390086</v>
+      </c>
+      <c r="O24">
+        <v>0.2189265747605062</v>
+      </c>
+      <c r="P24">
+        <v>0.2597154251611292</v>
+      </c>
+      <c r="Q24">
+        <v>0.06502228963000001</v>
+      </c>
+      <c r="R24">
+        <v>0.5852006066700001</v>
+      </c>
+      <c r="S24">
+        <v>0.02785537715482811</v>
+      </c>
+      <c r="T24">
+        <v>0.03505919829394621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.08161500000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.244845</v>
+      </c>
+      <c r="I25">
+        <v>0.1272361621027524</v>
+      </c>
+      <c r="J25">
+        <v>0.1349908203264987</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.2933653333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.880096</v>
+      </c>
+      <c r="O25">
+        <v>0.08061484094732256</v>
+      </c>
+      <c r="P25">
+        <v>0.09563442772461289</v>
+      </c>
+      <c r="Q25">
+        <v>0.02394301168</v>
+      </c>
+      <c r="R25">
+        <v>0.21548710512</v>
+      </c>
+      <c r="S25">
+        <v>0.01025712297066114</v>
+      </c>
+      <c r="T25">
+        <v>0.01290976985000074</v>
       </c>
     </row>
   </sheetData>
